--- a/www/IndicatorsPerCountry/Philippines_CopperProduction_TerritorialRef_1946_2012_CCode_608.xlsx
+++ b/www/IndicatorsPerCountry/Philippines_CopperProduction_TerritorialRef_1946_2012_CCode_608.xlsx
@@ -792,13 +792,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Philippines_CopperProduction_TerritorialRef_1946_2012_CCode_608.xlsx
+++ b/www/IndicatorsPerCountry/Philippines_CopperProduction_TerritorialRef_1946_2012_CCode_608.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,733 +36,214 @@
     <t>Copper Production</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
+    <t>0</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>6.1</t>
+    <t>4.4</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>10.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>9.9</t>
   </si>
   <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>8.9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>10.4</t>
   </si>
   <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>21.75</t>
-  </si>
-  <si>
-    <t>22.225</t>
-  </si>
-  <si>
-    <t>22.1625</t>
-  </si>
-  <si>
-    <t>24.6</t>
-  </si>
-  <si>
-    <t>26.75</t>
-  </si>
-  <si>
-    <t>26.4</t>
-  </si>
-  <si>
-    <t>25.75</t>
-  </si>
-  <si>
-    <t>26.725</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>30.15</t>
-  </si>
-  <si>
-    <t>30.975</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>32.05</t>
-  </si>
-  <si>
-    <t>33.4</t>
-  </si>
-  <si>
-    <t>35.55</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>36.95</t>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>40.4</t>
   </si>
   <si>
-    <t>40.7</t>
-  </si>
-  <si>
-    <t>40.25</t>
-  </si>
-  <si>
-    <t>44.075</t>
-  </si>
-  <si>
-    <t>41.9</t>
-  </si>
-  <si>
-    <t>47.6</t>
-  </si>
-  <si>
-    <t>48.95</t>
-  </si>
-  <si>
-    <t>45.825</t>
-  </si>
-  <si>
-    <t>57.6125</t>
-  </si>
-  <si>
-    <t>64.1</t>
-  </si>
-  <si>
-    <t>71.4</t>
-  </si>
-  <si>
-    <t>69.25</t>
-  </si>
-  <si>
-    <t>67.225</t>
-  </si>
-  <si>
-    <t>67.8625</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>80.2</t>
-  </si>
-  <si>
-    <t>87.45</t>
-  </si>
-  <si>
-    <t>82.475</t>
-  </si>
-  <si>
-    <t>92.4</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>87.5</t>
-  </si>
-  <si>
-    <t>100.2</t>
-  </si>
-  <si>
-    <t>102.15</t>
-  </si>
-  <si>
-    <t>112.4</t>
-  </si>
-  <si>
-    <t>96.8</t>
-  </si>
-  <si>
-    <t>108.3</t>
-  </si>
-  <si>
-    <t>98.9</t>
-  </si>
-  <si>
-    <t>113.3</t>
-  </si>
-  <si>
-    <t>121.3</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>143.4</t>
-  </si>
-  <si>
-    <t>146.1</t>
-  </si>
-  <si>
-    <t>139.6</t>
-  </si>
-  <si>
-    <t>144.3</t>
-  </si>
-  <si>
-    <t>165.2</t>
-  </si>
-  <si>
-    <t>182.8</t>
-  </si>
-  <si>
-    <t>188.8</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>85.8</t>
+  </si>
+  <si>
+    <t>110.3</t>
+  </si>
+  <si>
+    <t>131.4</t>
+  </si>
+  <si>
+    <t>160.3</t>
+  </si>
+  <si>
+    <t>197.6</t>
+  </si>
+  <si>
+    <t>213.7</t>
+  </si>
+  <si>
+    <t>221.2</t>
+  </si>
+  <si>
+    <t>225.5</t>
+  </si>
+  <si>
+    <t>225.8</t>
+  </si>
+  <si>
+    <t>237.6</t>
+  </si>
+  <si>
+    <t>273.6</t>
+  </si>
+  <si>
+    <t>263.4</t>
+  </si>
+  <si>
+    <t>300.5</t>
+  </si>
+  <si>
+    <t>304.6</t>
+  </si>
+  <si>
+    <t>305.262</t>
+  </si>
+  <si>
+    <t>292.3</t>
+  </si>
+  <si>
+    <t>271.4</t>
+  </si>
+  <si>
+    <t>233.4</t>
+  </si>
+  <si>
+    <t>222.2</t>
   </si>
   <si>
     <t>222.6</t>
   </si>
   <si>
-    <t>221.9</t>
-  </si>
-  <si>
-    <t>209.4</t>
-  </si>
-  <si>
-    <t>228.03</t>
-  </si>
-  <si>
-    <t>274.5</t>
-  </si>
-  <si>
-    <t>250.8</t>
-  </si>
-  <si>
-    <t>278.9</t>
-  </si>
-  <si>
-    <t>272.6</t>
-  </si>
-  <si>
-    <t>296.5</t>
-  </si>
-  <si>
-    <t>292.3</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>316.7</t>
-  </si>
-  <si>
-    <t>368.8</t>
-  </si>
-  <si>
-    <t>392.7</t>
-  </si>
-  <si>
-    <t>422.1</t>
-  </si>
-  <si>
-    <t>467.4</t>
-  </si>
-  <si>
-    <t>491.3</t>
-  </si>
-  <si>
-    <t>524.2</t>
-  </si>
-  <si>
-    <t>544.9</t>
-  </si>
-  <si>
-    <t>586.4</t>
-  </si>
-  <si>
-    <t>642.7</t>
-  </si>
-  <si>
-    <t>703.4</t>
-  </si>
-  <si>
-    <t>720.3</t>
-  </si>
-  <si>
-    <t>712.9</t>
-  </si>
-  <si>
-    <t>771.6</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>866.4</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>1007.9</t>
-  </si>
-  <si>
-    <t>1009.8</t>
-  </si>
-  <si>
-    <t>903.1</t>
-  </si>
-  <si>
-    <t>1106.5</t>
-  </si>
-  <si>
-    <t>1408.7</t>
-  </si>
-  <si>
-    <t>1432.9</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t>952.8</t>
-  </si>
-  <si>
-    <t>966.35</t>
-  </si>
-  <si>
-    <t>532.9</t>
-  </si>
-  <si>
-    <t>862.5</t>
-  </si>
-  <si>
-    <t>1251.7</t>
-  </si>
-  <si>
-    <t>1344.69</t>
-  </si>
-  <si>
-    <t>1415.2</t>
-  </si>
-  <si>
-    <t>1472.4</t>
-  </si>
-  <si>
-    <t>1515.9</t>
-  </si>
-  <si>
-    <t>1725.1</t>
-  </si>
-  <si>
-    <t>1930.6</t>
-  </si>
-  <si>
-    <t>1592.9</t>
-  </si>
-  <si>
-    <t>1358.3</t>
-  </si>
-  <si>
-    <t>882.7</t>
-  </si>
-  <si>
-    <t>992.2</t>
-  </si>
-  <si>
-    <t>1247.9</t>
-  </si>
-  <si>
-    <t>1447.7</t>
-  </si>
-  <si>
-    <t>1660.6</t>
-  </si>
-  <si>
-    <t>2255.6</t>
-  </si>
-  <si>
-    <t>1968.6</t>
-  </si>
-  <si>
-    <t>2156.4</t>
-  </si>
-  <si>
-    <t>2381.5</t>
-  </si>
-  <si>
-    <t>2499.9</t>
-  </si>
-  <si>
-    <t>2657.8</t>
-  </si>
-  <si>
-    <t>2659.7</t>
-  </si>
-  <si>
-    <t>2492.5</t>
-  </si>
-  <si>
-    <t>2145.2</t>
-  </si>
-  <si>
-    <t>1815.3</t>
-  </si>
-  <si>
-    <t>2223.2</t>
-  </si>
-  <si>
-    <t>2334.4</t>
-  </si>
-  <si>
-    <t>2287.6</t>
-  </si>
-  <si>
-    <t>2525.9</t>
-  </si>
-  <si>
-    <t>2676.2</t>
-  </si>
-  <si>
-    <t>2779.4</t>
-  </si>
-  <si>
-    <t>2846.9</t>
-  </si>
-  <si>
-    <t>2964.1</t>
-  </si>
-  <si>
-    <t>3229.1</t>
-  </si>
-  <si>
-    <t>3540.3</t>
-  </si>
-  <si>
-    <t>3613</t>
-  </si>
-  <si>
-    <t>3493.9</t>
-  </si>
-  <si>
-    <t>3713.1</t>
-  </si>
-  <si>
-    <t>4302.5</t>
-  </si>
-  <si>
-    <t>4451.1</t>
-  </si>
-  <si>
-    <t>4669.9</t>
-  </si>
-  <si>
-    <t>4755.9</t>
-  </si>
-  <si>
-    <t>4904.2</t>
-  </si>
-  <si>
-    <t>5151.8</t>
-  </si>
-  <si>
-    <t>5395.4</t>
-  </si>
-  <si>
-    <t>5076.8</t>
-  </si>
-  <si>
-    <t>5631.5</t>
-  </si>
-  <si>
-    <t>6093.1</t>
-  </si>
-  <si>
-    <t>6191.9</t>
-  </si>
-  <si>
-    <t>6523.4</t>
-  </si>
-  <si>
-    <t>7119.9</t>
-  </si>
-  <si>
-    <t>7607.5</t>
-  </si>
-  <si>
-    <t>7900.81</t>
-  </si>
-  <si>
-    <t>7302.297</t>
-  </si>
-  <si>
-    <t>7815.198</t>
-  </si>
-  <si>
-    <t>7925.625</t>
-  </si>
-  <si>
-    <t>7581.169</t>
-  </si>
-  <si>
-    <t>7700.122</t>
-  </si>
-  <si>
-    <t>7557.433</t>
-  </si>
-  <si>
-    <t>8146.975</t>
-  </si>
-  <si>
-    <t>8079.774</t>
-  </si>
-  <si>
-    <t>8032.388</t>
-  </si>
-  <si>
-    <t>8243.901</t>
-  </si>
-  <si>
-    <t>8361.476</t>
-  </si>
-  <si>
-    <t>8429.257</t>
-  </si>
-  <si>
-    <t>8682.461</t>
-  </si>
-  <si>
-    <t>8776.451</t>
-  </si>
-  <si>
-    <t>9010.059</t>
-  </si>
-  <si>
-    <t>9027.1</t>
-  </si>
-  <si>
-    <t>9173.332</t>
-  </si>
-  <si>
-    <t>9413.831</t>
-  </si>
-  <si>
-    <t>9394.321</t>
-  </si>
-  <si>
-    <t>9512.457</t>
-  </si>
-  <si>
-    <t>9893.738</t>
-  </si>
-  <si>
-    <t>10958.912</t>
-  </si>
-  <si>
-    <t>11382.624</t>
-  </si>
-  <si>
-    <t>12137.461</t>
-  </si>
-  <si>
-    <t>12702.176</t>
-  </si>
-  <si>
-    <t>13201.439</t>
-  </si>
-  <si>
-    <t>13680.99</t>
-  </si>
-  <si>
-    <t>13598.81</t>
-  </si>
-  <si>
-    <t>13790.136</t>
-  </si>
-  <si>
-    <t>14859.307</t>
-  </si>
-  <si>
-    <t>15032.364</t>
-  </si>
-  <si>
-    <t>15071.111</t>
-  </si>
-  <si>
-    <t>15517.054</t>
-  </si>
-  <si>
-    <t>15625.16</t>
-  </si>
-  <si>
-    <t>16021.632</t>
-  </si>
-  <si>
-    <t>16155.003</t>
-  </si>
-  <si>
-    <t>16149.829</t>
-  </si>
-  <si>
-    <t>16909.376</t>
+    <t>216.1</t>
+  </si>
+  <si>
+    <t>218.1</t>
+  </si>
+  <si>
+    <t>193.1</t>
+  </si>
+  <si>
+    <t>180.5</t>
+  </si>
+  <si>
+    <t>148.2</t>
+  </si>
+  <si>
+    <t>123.5</t>
+  </si>
+  <si>
+    <t>136.257</t>
+  </si>
+  <si>
+    <t>116.163</t>
+  </si>
+  <si>
+    <t>108.063</t>
+  </si>
+  <si>
+    <t>54.487</t>
+  </si>
+  <si>
+    <t>46.959</t>
+  </si>
+  <si>
+    <t>45.4</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>30.644</t>
+  </si>
+  <si>
+    <t>20.322</t>
+  </si>
+  <si>
+    <t>18.364</t>
+  </si>
+  <si>
+    <t>20.414</t>
+  </si>
+  <si>
+    <t>15.984</t>
+  </si>
+  <si>
+    <t>16.323</t>
+  </si>
+  <si>
+    <t>17.161</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21.235</t>
+  </si>
+  <si>
+    <t>49.06</t>
+  </si>
+  <si>
+    <t>58.412</t>
+  </si>
+  <si>
+    <t>65.444</t>
   </si>
   <si>
     <t>Description</t>
@@ -914,7 +395,7 @@
         <v>1732.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -948,7 +429,7 @@
         <v>1734.0</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -965,7 +446,7 @@
         <v>1735.0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -982,7 +463,7 @@
         <v>1736.0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +480,7 @@
         <v>1737.0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1016,7 +497,7 @@
         <v>1738.0</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1033,7 +514,7 @@
         <v>1739.0</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1050,7 +531,7 @@
         <v>1740.0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1067,7 +548,7 @@
         <v>1741.0</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1084,7 +565,7 @@
         <v>1742.0</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1118,7 +599,7 @@
         <v>1744.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1169,7 +650,7 @@
         <v>1747.0</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +667,7 @@
         <v>1748.0</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1203,7 +684,7 @@
         <v>1749.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1220,7 +701,7 @@
         <v>1750.0</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1237,7 +718,7 @@
         <v>1751.0</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1254,7 +735,7 @@
         <v>1752.0</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +752,7 @@
         <v>1753.0</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1288,7 +769,7 @@
         <v>1754.0</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1305,7 +786,7 @@
         <v>1755.0</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1322,7 +803,7 @@
         <v>1756.0</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1339,7 +820,7 @@
         <v>1757.0</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1356,7 +837,7 @@
         <v>1758.0</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1373,7 +854,7 @@
         <v>1759.0</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1390,7 +871,7 @@
         <v>1760.0</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1407,7 +888,7 @@
         <v>1761.0</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1424,7 +905,7 @@
         <v>1762.0</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1441,7 +922,7 @@
         <v>1763.0</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1458,7 +939,7 @@
         <v>1764.0</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1475,7 +956,7 @@
         <v>1765.0</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1492,7 +973,7 @@
         <v>1766.0</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1509,7 +990,7 @@
         <v>1767.0</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1526,7 +1007,7 @@
         <v>1768.0</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1543,7 +1024,7 @@
         <v>1769.0</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1560,7 +1041,7 @@
         <v>1770.0</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1577,7 +1058,7 @@
         <v>1771.0</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1594,7 +1075,7 @@
         <v>1772.0</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1611,7 +1092,7 @@
         <v>1773.0</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1628,7 +1109,7 @@
         <v>1774.0</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1645,7 +1126,7 @@
         <v>1775.0</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1662,7 +1143,7 @@
         <v>1776.0</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1679,7 +1160,7 @@
         <v>1777.0</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1177,7 @@
         <v>1778.0</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1713,7 +1194,7 @@
         <v>1779.0</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1730,7 +1211,7 @@
         <v>1780.0</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1747,7 +1228,7 @@
         <v>1781.0</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1764,7 +1245,7 @@
         <v>1782.0</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1781,7 +1262,7 @@
         <v>1783.0</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1798,7 +1279,7 @@
         <v>1784.0</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1815,7 +1296,7 @@
         <v>1785.0</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1832,7 +1313,7 @@
         <v>1786.0</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1330,7 @@
         <v>1787.0</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -1866,7 +1347,7 @@
         <v>1788.0</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1883,7 +1364,7 @@
         <v>1789.0</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1900,7 +1381,7 @@
         <v>1790.0</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1917,7 +1398,7 @@
         <v>1791.0</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -1934,7 +1415,7 @@
         <v>1792.0</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -1951,7 +1432,7 @@
         <v>1793.0</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1968,7 +1449,7 @@
         <v>1794.0</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -1985,7 +1466,7 @@
         <v>1795.0</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -2002,7 +1483,7 @@
         <v>1796.0</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2019,7 +1500,7 @@
         <v>1797.0</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2036,7 +1517,7 @@
         <v>1798.0</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -2053,7 +1534,7 @@
         <v>1799.0</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2070,7 +1551,7 @@
         <v>1800.0</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -2087,7 +1568,7 @@
         <v>1801.0</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -2104,7 +1585,7 @@
         <v>1802.0</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -2121,7 +1602,7 @@
         <v>1803.0</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -2138,7 +1619,7 @@
         <v>1804.0</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -2155,7 +1636,7 @@
         <v>1805.0</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2172,7 +1653,7 @@
         <v>1806.0</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +1670,7 @@
         <v>1807.0</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -2206,7 +1687,7 @@
         <v>1808.0</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2223,7 +1704,7 @@
         <v>1809.0</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -2240,7 +1721,7 @@
         <v>1810.0</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2257,7 +1738,7 @@
         <v>1811.0</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2274,7 +1755,7 @@
         <v>1812.0</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -2291,7 +1772,7 @@
         <v>1813.0</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2308,7 +1789,7 @@
         <v>1814.0</v>
       </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2325,7 +1806,7 @@
         <v>1815.0</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2342,7 +1823,7 @@
         <v>1816.0</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2359,7 +1840,7 @@
         <v>1817.0</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2376,7 +1857,7 @@
         <v>1818.0</v>
       </c>
       <c r="E90" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -2393,7 +1874,7 @@
         <v>1819.0</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -2410,7 +1891,7 @@
         <v>1820.0</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2427,7 +1908,7 @@
         <v>1821.0</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2444,7 +1925,7 @@
         <v>1822.0</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2461,7 +1942,7 @@
         <v>1823.0</v>
       </c>
       <c r="E95" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2478,7 +1959,7 @@
         <v>1824.0</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2495,7 +1976,7 @@
         <v>1825.0</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -2512,7 +1993,7 @@
         <v>1826.0</v>
       </c>
       <c r="E98" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2529,7 +2010,7 @@
         <v>1827.0</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -2546,7 +2027,7 @@
         <v>1828.0</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2563,7 +2044,7 @@
         <v>1829.0</v>
       </c>
       <c r="E101" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2580,7 +2061,7 @@
         <v>1830.0</v>
       </c>
       <c r="E102" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -2597,7 +2078,7 @@
         <v>1831.0</v>
       </c>
       <c r="E103" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2095,7 @@
         <v>1832.0</v>
       </c>
       <c r="E104" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2631,7 +2112,7 @@
         <v>1833.0</v>
       </c>
       <c r="E105" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2648,7 +2129,7 @@
         <v>1834.0</v>
       </c>
       <c r="E106" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2665,7 +2146,7 @@
         <v>1835.0</v>
       </c>
       <c r="E107" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2682,7 +2163,7 @@
         <v>1836.0</v>
       </c>
       <c r="E108" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2699,7 +2180,7 @@
         <v>1837.0</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -2716,7 +2197,7 @@
         <v>1838.0</v>
       </c>
       <c r="E110" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2733,7 +2214,7 @@
         <v>1839.0</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2750,7 +2231,7 @@
         <v>1840.0</v>
       </c>
       <c r="E112" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -2767,7 +2248,7 @@
         <v>1841.0</v>
       </c>
       <c r="E113" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -2784,7 +2265,7 @@
         <v>1842.0</v>
       </c>
       <c r="E114" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2801,7 +2282,7 @@
         <v>1843.0</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2818,7 +2299,7 @@
         <v>1844.0</v>
       </c>
       <c r="E116" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2835,7 +2316,7 @@
         <v>1845.0</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2852,7 +2333,7 @@
         <v>1846.0</v>
       </c>
       <c r="E118" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2869,7 +2350,7 @@
         <v>1847.0</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2886,7 +2367,7 @@
         <v>1848.0</v>
       </c>
       <c r="E120" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2903,7 +2384,7 @@
         <v>1849.0</v>
       </c>
       <c r="E121" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2920,7 +2401,7 @@
         <v>1850.0</v>
       </c>
       <c r="E122" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2937,7 +2418,7 @@
         <v>1851.0</v>
       </c>
       <c r="E123" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2954,7 +2435,7 @@
         <v>1852.0</v>
       </c>
       <c r="E124" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2971,7 +2452,7 @@
         <v>1853.0</v>
       </c>
       <c r="E125" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2988,7 +2469,7 @@
         <v>1854.0</v>
       </c>
       <c r="E126" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +2486,7 @@
         <v>1855.0</v>
       </c>
       <c r="E127" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -3022,7 +2503,7 @@
         <v>1856.0</v>
       </c>
       <c r="E128" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -3039,7 +2520,7 @@
         <v>1857.0</v>
       </c>
       <c r="E129" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -3056,7 +2537,7 @@
         <v>1858.0</v>
       </c>
       <c r="E130" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -3073,7 +2554,7 @@
         <v>1859.0</v>
       </c>
       <c r="E131" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -3090,7 +2571,7 @@
         <v>1860.0</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -3107,7 +2588,7 @@
         <v>1861.0</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -3124,7 +2605,7 @@
         <v>1862.0</v>
       </c>
       <c r="E134" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -3141,7 +2622,7 @@
         <v>1863.0</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -3158,7 +2639,7 @@
         <v>1864.0</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -3175,7 +2656,7 @@
         <v>1865.0</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3192,7 +2673,7 @@
         <v>1866.0</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -3209,7 +2690,7 @@
         <v>1867.0</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -3226,7 +2707,7 @@
         <v>1868.0</v>
       </c>
       <c r="E140" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -3243,7 +2724,7 @@
         <v>1869.0</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -3260,7 +2741,7 @@
         <v>1870.0</v>
       </c>
       <c r="E142" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -3277,7 +2758,7 @@
         <v>1871.0</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -3294,7 +2775,7 @@
         <v>1872.0</v>
       </c>
       <c r="E144" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -3311,7 +2792,7 @@
         <v>1873.0</v>
       </c>
       <c r="E145" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -3328,7 +2809,7 @@
         <v>1874.0</v>
       </c>
       <c r="E146" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -3345,7 +2826,7 @@
         <v>1875.0</v>
       </c>
       <c r="E147" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -3362,7 +2843,7 @@
         <v>1876.0</v>
       </c>
       <c r="E148" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -3379,7 +2860,7 @@
         <v>1877.0</v>
       </c>
       <c r="E149" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -3396,7 +2877,7 @@
         <v>1878.0</v>
       </c>
       <c r="E150" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -3413,7 +2894,7 @@
         <v>1879.0</v>
       </c>
       <c r="E151" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -3430,7 +2911,7 @@
         <v>1880.0</v>
       </c>
       <c r="E152" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -3447,7 +2928,7 @@
         <v>1881.0</v>
       </c>
       <c r="E153" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -3464,7 +2945,7 @@
         <v>1882.0</v>
       </c>
       <c r="E154" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -3481,7 +2962,7 @@
         <v>1883.0</v>
       </c>
       <c r="E155" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3498,7 +2979,7 @@
         <v>1884.0</v>
       </c>
       <c r="E156" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -3515,7 +2996,7 @@
         <v>1885.0</v>
       </c>
       <c r="E157" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -3532,7 +3013,7 @@
         <v>1886.0</v>
       </c>
       <c r="E158" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3549,7 +3030,7 @@
         <v>1887.0</v>
       </c>
       <c r="E159" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -3566,7 +3047,7 @@
         <v>1888.0</v>
       </c>
       <c r="E160" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3064,7 @@
         <v>1889.0</v>
       </c>
       <c r="E161" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -3600,7 +3081,7 @@
         <v>1890.0</v>
       </c>
       <c r="E162" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -3617,7 +3098,7 @@
         <v>1891.0</v>
       </c>
       <c r="E163" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3634,7 +3115,7 @@
         <v>1892.0</v>
       </c>
       <c r="E164" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3651,7 +3132,7 @@
         <v>1893.0</v>
       </c>
       <c r="E165" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3668,7 +3149,7 @@
         <v>1894.0</v>
       </c>
       <c r="E166" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -3685,7 +3166,7 @@
         <v>1895.0</v>
       </c>
       <c r="E167" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3702,7 +3183,7 @@
         <v>1896.0</v>
       </c>
       <c r="E168" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -3719,7 +3200,7 @@
         <v>1897.0</v>
       </c>
       <c r="E169" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -3736,7 +3217,7 @@
         <v>1898.0</v>
       </c>
       <c r="E170" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3753,7 +3234,7 @@
         <v>1899.0</v>
       </c>
       <c r="E171" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -3770,7 +3251,7 @@
         <v>1900.0</v>
       </c>
       <c r="E172" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3787,7 +3268,7 @@
         <v>1901.0</v>
       </c>
       <c r="E173" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -3804,7 +3285,7 @@
         <v>1902.0</v>
       </c>
       <c r="E174" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3821,7 +3302,7 @@
         <v>1903.0</v>
       </c>
       <c r="E175" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3838,7 +3319,7 @@
         <v>1904.0</v>
       </c>
       <c r="E176" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -3855,7 +3336,7 @@
         <v>1905.0</v>
       </c>
       <c r="E177" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -3872,7 +3353,7 @@
         <v>1906.0</v>
       </c>
       <c r="E178" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3889,7 +3370,7 @@
         <v>1907.0</v>
       </c>
       <c r="E179" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3906,7 +3387,7 @@
         <v>1908.0</v>
       </c>
       <c r="E180" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -3923,7 +3404,7 @@
         <v>1909.0</v>
       </c>
       <c r="E181" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -3940,7 +3421,7 @@
         <v>1910.0</v>
       </c>
       <c r="E182" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -3957,7 +3438,7 @@
         <v>1911.0</v>
       </c>
       <c r="E183" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -3974,7 +3455,7 @@
         <v>1912.0</v>
       </c>
       <c r="E184" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -3991,7 +3472,7 @@
         <v>1913.0</v>
       </c>
       <c r="E185" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -4008,7 +3489,7 @@
         <v>1914.0</v>
       </c>
       <c r="E186" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -4025,7 +3506,7 @@
         <v>1915.0</v>
       </c>
       <c r="E187" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -4042,7 +3523,7 @@
         <v>1916.0</v>
       </c>
       <c r="E188" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -4059,7 +3540,7 @@
         <v>1917.0</v>
       </c>
       <c r="E189" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -4076,7 +3557,7 @@
         <v>1918.0</v>
       </c>
       <c r="E190" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -4093,7 +3574,7 @@
         <v>1919.0</v>
       </c>
       <c r="E191" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
@@ -4110,7 +3591,7 @@
         <v>1920.0</v>
       </c>
       <c r="E192" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -4127,7 +3608,7 @@
         <v>1921.0</v>
       </c>
       <c r="E193" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -4144,7 +3625,7 @@
         <v>1922.0</v>
       </c>
       <c r="E194" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -4161,7 +3642,7 @@
         <v>1923.0</v>
       </c>
       <c r="E195" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -4178,7 +3659,7 @@
         <v>1924.0</v>
       </c>
       <c r="E196" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -4195,7 +3676,7 @@
         <v>1925.0</v>
       </c>
       <c r="E197" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -4212,7 +3693,7 @@
         <v>1926.0</v>
       </c>
       <c r="E198" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -4229,7 +3710,7 @@
         <v>1927.0</v>
       </c>
       <c r="E199" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -4246,7 +3727,7 @@
         <v>1928.0</v>
       </c>
       <c r="E200" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -4263,7 +3744,7 @@
         <v>1929.0</v>
       </c>
       <c r="E201" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -4280,7 +3761,7 @@
         <v>1930.0</v>
       </c>
       <c r="E202" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -4297,7 +3778,7 @@
         <v>1931.0</v>
       </c>
       <c r="E203" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -4314,7 +3795,7 @@
         <v>1932.0</v>
       </c>
       <c r="E204" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -4331,7 +3812,7 @@
         <v>1933.0</v>
       </c>
       <c r="E205" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -4348,7 +3829,7 @@
         <v>1934.0</v>
       </c>
       <c r="E206" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -4365,7 +3846,7 @@
         <v>1935.0</v>
       </c>
       <c r="E207" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -4382,7 +3863,7 @@
         <v>1936.0</v>
       </c>
       <c r="E208" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -4399,7 +3880,7 @@
         <v>1937.0</v>
       </c>
       <c r="E209" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -4416,7 +3897,7 @@
         <v>1938.0</v>
       </c>
       <c r="E210" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
@@ -4433,7 +3914,7 @@
         <v>1939.0</v>
       </c>
       <c r="E211" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
@@ -4450,7 +3931,7 @@
         <v>1940.0</v>
       </c>
       <c r="E212" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
@@ -4467,7 +3948,7 @@
         <v>1941.0</v>
       </c>
       <c r="E213" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -4484,7 +3965,7 @@
         <v>1942.0</v>
       </c>
       <c r="E214" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
@@ -4501,7 +3982,7 @@
         <v>1943.0</v>
       </c>
       <c r="E215" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -4518,7 +3999,7 @@
         <v>1944.0</v>
       </c>
       <c r="E216" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -4535,7 +4016,7 @@
         <v>1945.0</v>
       </c>
       <c r="E217" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -4552,7 +4033,7 @@
         <v>1946.0</v>
       </c>
       <c r="E218" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -4569,7 +4050,7 @@
         <v>1947.0</v>
       </c>
       <c r="E219" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
@@ -4586,7 +4067,7 @@
         <v>1948.0</v>
       </c>
       <c r="E220" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
@@ -4603,7 +4084,7 @@
         <v>1949.0</v>
       </c>
       <c r="E221" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
@@ -4620,7 +4101,7 @@
         <v>1950.0</v>
       </c>
       <c r="E222" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223">
@@ -4637,7 +4118,7 @@
         <v>1951.0</v>
       </c>
       <c r="E223" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224">
@@ -4654,7 +4135,7 @@
         <v>1952.0</v>
       </c>
       <c r="E224" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
@@ -4671,7 +4152,7 @@
         <v>1953.0</v>
       </c>
       <c r="E225" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
@@ -4688,7 +4169,7 @@
         <v>1954.0</v>
       </c>
       <c r="E226" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227">
@@ -4705,7 +4186,7 @@
         <v>1955.0</v>
       </c>
       <c r="E227" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -4722,7 +4203,7 @@
         <v>1956.0</v>
       </c>
       <c r="E228" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229">
@@ -4739,7 +4220,7 @@
         <v>1957.0</v>
       </c>
       <c r="E229" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230">
@@ -4756,7 +4237,7 @@
         <v>1958.0</v>
       </c>
       <c r="E230" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231">
@@ -4773,7 +4254,7 @@
         <v>1959.0</v>
       </c>
       <c r="E231" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232">
@@ -4790,7 +4271,7 @@
         <v>1960.0</v>
       </c>
       <c r="E232" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233">
@@ -4807,7 +4288,7 @@
         <v>1961.0</v>
       </c>
       <c r="E233" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
@@ -4824,7 +4305,7 @@
         <v>1962.0</v>
       </c>
       <c r="E234" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235">
@@ -4841,7 +4322,7 @@
         <v>1963.0</v>
       </c>
       <c r="E235" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236">
@@ -4858,7 +4339,7 @@
         <v>1964.0</v>
       </c>
       <c r="E236" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237">
@@ -4875,7 +4356,7 @@
         <v>1965.0</v>
       </c>
       <c r="E237" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238">
@@ -4892,7 +4373,7 @@
         <v>1966.0</v>
       </c>
       <c r="E238" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239">
@@ -4909,7 +4390,7 @@
         <v>1967.0</v>
       </c>
       <c r="E239" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -4926,7 +4407,7 @@
         <v>1968.0</v>
       </c>
       <c r="E240" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241">
@@ -4943,7 +4424,7 @@
         <v>1969.0</v>
       </c>
       <c r="E241" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242">
@@ -4960,7 +4441,7 @@
         <v>1970.0</v>
       </c>
       <c r="E242" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243">
@@ -4977,7 +4458,7 @@
         <v>1971.0</v>
       </c>
       <c r="E243" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244">
@@ -4994,7 +4475,7 @@
         <v>1972.0</v>
       </c>
       <c r="E244" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245">
@@ -5011,7 +4492,7 @@
         <v>1973.0</v>
       </c>
       <c r="E245" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +4509,7 @@
         <v>1974.0</v>
       </c>
       <c r="E246" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247">
@@ -5045,7 +4526,7 @@
         <v>1975.0</v>
       </c>
       <c r="E247" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
     </row>
     <row r="248">
@@ -5062,7 +4543,7 @@
         <v>1976.0</v>
       </c>
       <c r="E248" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249">
@@ -5079,7 +4560,7 @@
         <v>1977.0</v>
       </c>
       <c r="E249" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
     </row>
     <row r="250">
@@ -5096,7 +4577,7 @@
         <v>1978.0</v>
       </c>
       <c r="E250" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251">
@@ -5113,7 +4594,7 @@
         <v>1979.0</v>
       </c>
       <c r="E251" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
     </row>
     <row r="252">
@@ -5130,7 +4611,7 @@
         <v>1980.0</v>
       </c>
       <c r="E252" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253">
@@ -5147,7 +4628,7 @@
         <v>1981.0</v>
       </c>
       <c r="E253" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254">
@@ -5164,7 +4645,7 @@
         <v>1982.0</v>
       </c>
       <c r="E254" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255">
@@ -5181,7 +4662,7 @@
         <v>1983.0</v>
       </c>
       <c r="E255" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256">
@@ -5198,7 +4679,7 @@
         <v>1984.0</v>
       </c>
       <c r="E256" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
     </row>
     <row r="257">
@@ -5215,7 +4696,7 @@
         <v>1985.0</v>
       </c>
       <c r="E257" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258">
@@ -5232,7 +4713,7 @@
         <v>1986.0</v>
       </c>
       <c r="E258" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
     </row>
     <row r="259">
@@ -5249,7 +4730,7 @@
         <v>1987.0</v>
       </c>
       <c r="E259" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
     </row>
     <row r="260">
@@ -5266,7 +4747,7 @@
         <v>1988.0</v>
       </c>
       <c r="E260" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
     </row>
     <row r="261">
@@ -5283,7 +4764,7 @@
         <v>1989.0</v>
       </c>
       <c r="E261" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262">
@@ -5300,7 +4781,7 @@
         <v>1990.0</v>
       </c>
       <c r="E262" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
@@ -5317,7 +4798,7 @@
         <v>1991.0</v>
       </c>
       <c r="E263" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
     </row>
     <row r="264">
@@ -5334,7 +4815,7 @@
         <v>1992.0</v>
       </c>
       <c r="E264" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265">
@@ -5351,7 +4832,7 @@
         <v>1993.0</v>
       </c>
       <c r="E265" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
     </row>
     <row r="266">
@@ -5368,7 +4849,7 @@
         <v>1994.0</v>
       </c>
       <c r="E266" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267">
@@ -5385,7 +4866,7 @@
         <v>1995.0</v>
       </c>
       <c r="E267" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -5402,7 +4883,7 @@
         <v>1996.0</v>
       </c>
       <c r="E268" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269">
@@ -5419,7 +4900,7 @@
         <v>1997.0</v>
       </c>
       <c r="E269" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
     </row>
     <row r="270">
@@ -5436,7 +4917,7 @@
         <v>1998.0</v>
       </c>
       <c r="E270" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
     </row>
     <row r="271">
@@ -5453,7 +4934,7 @@
         <v>1999.0</v>
       </c>
       <c r="E271" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
     </row>
     <row r="272">
@@ -5470,7 +4951,7 @@
         <v>2000.0</v>
       </c>
       <c r="E272" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273">
@@ -5487,7 +4968,7 @@
         <v>2001.0</v>
       </c>
       <c r="E273" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
     </row>
     <row r="274">
@@ -5504,7 +4985,7 @@
         <v>2002.0</v>
       </c>
       <c r="E274" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275">
@@ -5521,7 +5002,7 @@
         <v>2003.0</v>
       </c>
       <c r="E275" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
     </row>
     <row r="276">
@@ -5538,7 +5019,7 @@
         <v>2004.0</v>
       </c>
       <c r="E276" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
     </row>
     <row r="277">
@@ -5555,7 +5036,7 @@
         <v>2005.0</v>
       </c>
       <c r="E277" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278">
@@ -5572,7 +5053,7 @@
         <v>2006.0</v>
       </c>
       <c r="E278" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279">
@@ -5589,7 +5070,7 @@
         <v>2007.0</v>
       </c>
       <c r="E279" t="s">
-        <v>244</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280">
@@ -5606,7 +5087,7 @@
         <v>2008.0</v>
       </c>
       <c r="E280" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
     </row>
     <row r="281">
@@ -5623,7 +5104,7 @@
         <v>2009.0</v>
       </c>
       <c r="E281" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
     </row>
     <row r="282">
@@ -5640,7 +5121,7 @@
         <v>2010.0</v>
       </c>
       <c r="E282" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283">
@@ -5657,7 +5138,7 @@
         <v>2011.0</v>
       </c>
       <c r="E283" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284">
@@ -5674,7 +5155,7 @@
         <v>2012.0</v>
       </c>
       <c r="E284" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5692,50 +5173,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
